--- a/IS3_MVC_version/CSVFILE.xlsx
+++ b/IS3_MVC_version/CSVFILE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="207">
   <si>
     <t>Country</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Bronze</t>
+  </si>
+  <si>
+    <t>Continent</t>
   </si>
   <si>
     <t>Afghanistan</t>
@@ -732,27 +735,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L195"/>
+  <dimension ref="A1:N195"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="H1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="M1" activeCellId="0" pane="topLeft" sqref="M:M"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="I161" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="M195" activeCellId="0" pane="topLeft" sqref="M195"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.5137254901961"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="52.3529411764706"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.7686274509804"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.8352941176471"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="84.9254901960784"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="52.0666666666667"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="71.4352941176471"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="71.5803921568627"/>
-    <col collapsed="false" hidden="false" max="12" min="9" style="0" width="8.56862745098039"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="21.5137254901961"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.56862745098039"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.6039215686275"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="52.5686274509804"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.9686274509804"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.956862745098"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="85.2745098039216"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="52.2823529411765"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="71.7294117647059"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="71.8745098039216"/>
+    <col collapsed="false" hidden="false" max="12" min="9" style="0" width="8.60392156862745"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="21.6039215686275"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.6156862745098"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.60392156862745"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -789,10 +793,16 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>36</v>
@@ -822,10 +832,16 @@
       <c r="L2" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>61</v>
@@ -860,10 +876,16 @@
       <c r="L3" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="4">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>61</v>
@@ -898,10 +920,16 @@
       <c r="L4" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="5">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>72</v>
@@ -932,10 +960,16 @@
       <c r="L5" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="6">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>33</v>
@@ -967,10 +1001,16 @@
       <c r="L6" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="7">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>62</v>
@@ -1002,10 +1042,16 @@
       <c r="L7" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="8">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>65</v>
@@ -1040,10 +1086,16 @@
       <c r="L8" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="M8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="9">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>61</v>
@@ -1078,10 +1130,16 @@
       <c r="L9" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="M9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="10">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>73</v>
@@ -1116,10 +1174,16 @@
       <c r="L10" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="M10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="11">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>71</v>
@@ -1154,10 +1218,16 @@
       <c r="L11" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="12">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>57</v>
@@ -1189,10 +1259,16 @@
       <c r="L12" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="M12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="13">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>64</v>
@@ -1220,10 +1296,16 @@
       <c r="L13" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M13" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="14">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>64</v>
@@ -1256,10 +1338,16 @@
       <c r="L14" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="15">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>54</v>
@@ -1294,10 +1382,16 @@
       <c r="L15" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M15" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="16">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>66</v>
@@ -1330,10 +1424,16 @@
       <c r="L16" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M16" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="17">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>61</v>
@@ -1368,10 +1468,16 @@
       <c r="L17" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="M17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="18">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>71</v>
@@ -1404,10 +1510,16 @@
       <c r="L18" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="M18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="19">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>60</v>
@@ -1439,10 +1551,16 @@
       <c r="L19" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M19" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="20">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>44</v>
@@ -1474,10 +1592,16 @@
       <c r="L20" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="21">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>53</v>
@@ -1509,10 +1633,16 @@
       <c r="L21" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M21" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="22">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>54</v>
@@ -1547,10 +1677,16 @@
       <c r="L22" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M22" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="23">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>64</v>
@@ -1585,10 +1721,16 @@
       <c r="L23" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="24">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>36</v>
@@ -1620,10 +1762,16 @@
       <c r="L24" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M24" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="25">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>60</v>
@@ -1655,10 +1803,16 @@
       <c r="L25" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="M25" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="26">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>65</v>
@@ -1688,10 +1842,16 @@
       <c r="L26" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M26" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="27">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>65</v>
@@ -1726,10 +1886,16 @@
       <c r="L27" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="M27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="28">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>36</v>
@@ -1764,10 +1930,16 @@
       <c r="L28" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M28" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="29">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>35</v>
@@ -1799,10 +1971,16 @@
       <c r="L29" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="30">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>48</v>
@@ -1837,10 +2015,16 @@
       <c r="L30" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M30" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="31">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>41</v>
@@ -1875,10 +2059,16 @@
       <c r="L31" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M31" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="32">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>72</v>
@@ -1913,10 +2103,16 @@
       <c r="L32" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="M32" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>61</v>
@@ -1948,10 +2144,16 @@
       <c r="L33" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M33" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="34">
       <c r="A34" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>37</v>
@@ -1983,10 +2185,16 @@
       <c r="L34" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M34" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="35">
       <c r="A35" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>41</v>
@@ -2021,10 +2229,16 @@
       <c r="L35" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M35" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="36">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>67</v>
@@ -2059,10 +2273,16 @@
       <c r="L36" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M36" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="37">
       <c r="A37" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>64</v>
@@ -2097,10 +2317,16 @@
       <c r="L37" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="M37" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="38">
       <c r="A38" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>62</v>
@@ -2132,10 +2358,16 @@
       <c r="L38" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="M38" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="39">
       <c r="A39" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>55</v>
@@ -2170,10 +2402,16 @@
       <c r="L39" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M39" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="40">
       <c r="A40" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>37</v>
@@ -2208,10 +2446,16 @@
       <c r="L40" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M40" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="41">
       <c r="A41" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>46</v>
@@ -2246,10 +2490,16 @@
       <c r="L41" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M41" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="42">
       <c r="A42" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>62</v>
@@ -2282,10 +2532,16 @@
       <c r="L42" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M42" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="43">
       <c r="A43" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>67</v>
@@ -2320,10 +2576,16 @@
       <c r="L43" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="44">
+      <c r="M43" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="44">
       <c r="A44" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>39</v>
@@ -2346,10 +2608,16 @@
       <c r="H44" s="1" t="n">
         <v>81</v>
       </c>
+      <c r="M44" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="45">
       <c r="A45" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>67</v>
@@ -2384,10 +2652,16 @@
       <c r="L45" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="M45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="46">
       <c r="A46" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>68</v>
@@ -2420,10 +2694,16 @@
       <c r="L46" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="M46" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="47">
       <c r="A47" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>68</v>
@@ -2455,10 +2735,16 @@
       <c r="L47" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="48">
       <c r="A48" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>68</v>
@@ -2493,10 +2779,16 @@
       <c r="L48" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="M48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="49">
       <c r="A49" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>70</v>
@@ -2531,10 +2823,16 @@
       <c r="L49" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="M49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="50">
       <c r="A50" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>43</v>
@@ -2566,10 +2864,16 @@
       <c r="L50" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M50" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="51">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>64</v>
@@ -2601,10 +2905,16 @@
       <c r="L51" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M51" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="52">
       <c r="A52" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>60</v>
@@ -2639,10 +2949,16 @@
       <c r="L52" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M52" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="53">
       <c r="A53" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>62</v>
@@ -2677,10 +2993,16 @@
       <c r="L53" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M53" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="54">
       <c r="A54" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>59</v>
@@ -2715,10 +3037,16 @@
       <c r="L54" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M54" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="55">
       <c r="A55" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>60</v>
@@ -2750,10 +3078,16 @@
       <c r="L55" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M55" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="56">
       <c r="A56" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>46</v>
@@ -2785,10 +3119,16 @@
       <c r="L56" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M56" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="57">
       <c r="A57" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>50</v>
@@ -2823,10 +3163,16 @@
       <c r="L57" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M57" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="58">
       <c r="A58" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>64</v>
@@ -2861,10 +3207,16 @@
       <c r="L58" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="M58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="59">
       <c r="A59" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>41</v>
@@ -2899,10 +3251,16 @@
       <c r="L59" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="M59" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="60">
       <c r="A60" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>59</v>
@@ -2937,10 +3295,16 @@
       <c r="L60" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M60" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="61">
       <c r="A61" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>71</v>
@@ -2975,10 +3339,16 @@
       <c r="L61" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="M61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="62">
       <c r="A62" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>72</v>
@@ -3013,10 +3383,16 @@
       <c r="L62" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="M62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="63">
       <c r="A63" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>51</v>
@@ -3048,10 +3424,16 @@
       <c r="L63" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M63" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="64">
       <c r="A64" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>50</v>
@@ -3086,10 +3468,16 @@
       <c r="L64" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M64" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="65">
       <c r="A65" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>64</v>
@@ -3124,10 +3512,16 @@
       <c r="L65" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="M65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="66">
       <c r="A66" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>72</v>
@@ -3162,10 +3556,16 @@
       <c r="L66" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="M66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="67">
       <c r="A67" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>50</v>
@@ -3200,10 +3600,16 @@
       <c r="L67" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M67" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="68">
       <c r="A68" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>71</v>
@@ -3238,10 +3644,16 @@
       <c r="L68" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="M68" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="69">
       <c r="A69" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>59</v>
@@ -3273,10 +3685,16 @@
       <c r="L69" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M69" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="70">
       <c r="A70" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>57</v>
@@ -3311,10 +3729,16 @@
       <c r="L70" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M70" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="71">
       <c r="A71" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>45</v>
@@ -3346,10 +3770,16 @@
       <c r="L71" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M71" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="72">
       <c r="A72" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>41</v>
@@ -3381,10 +3811,16 @@
       <c r="L72" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M72" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="73">
       <c r="A73" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>55</v>
@@ -3416,10 +3852,16 @@
       <c r="L73" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M73" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="74">
       <c r="A74" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>44</v>
@@ -3451,10 +3893,16 @@
       <c r="L74" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M74" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="75">
       <c r="A75" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>58</v>
@@ -3486,10 +3934,16 @@
       <c r="L75" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M75" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="76">
       <c r="A76" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3509,10 +3963,16 @@
       <c r="L76" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="M76" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="77">
       <c r="A77" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>65</v>
@@ -3547,10 +4007,16 @@
       <c r="L77" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="M77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="78">
       <c r="A78" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>73</v>
@@ -3585,10 +4051,16 @@
       <c r="L78" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="79">
       <c r="A79" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>53</v>
@@ -3623,10 +4095,16 @@
       <c r="L79" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="M79" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="80">
       <c r="A80" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>58</v>
@@ -3661,10 +4139,16 @@
       <c r="L80" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="M80" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="81">
       <c r="A81" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>58</v>
@@ -3699,10 +4183,16 @@
       <c r="L81" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="M81" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="82">
       <c r="A82" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>50</v>
@@ -3735,10 +4225,16 @@
       <c r="L82" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M82" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="83">
       <c r="A83" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>70</v>
@@ -3771,10 +4267,16 @@
       <c r="L83" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="M83" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="84">
       <c r="A84" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>71</v>
@@ -3809,10 +4311,16 @@
       <c r="L84" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M84" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="85">
       <c r="A85" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>73</v>
@@ -3845,10 +4353,16 @@
       <c r="L85" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="M85" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="86">
       <c r="A86" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>65</v>
@@ -3883,10 +4397,16 @@
       <c r="L86" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="M86" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="87">
       <c r="A87" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>75</v>
@@ -3921,10 +4441,16 @@
       <c r="L87" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="M87" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="88">
       <c r="A88" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>61</v>
@@ -3959,10 +4485,16 @@
       <c r="L88" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M88" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="89">
       <c r="A89" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>56</v>
@@ -3997,10 +4529,16 @@
       <c r="L89" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="M89" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="90">
       <c r="A90" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B90" s="1" t="n">
         <v>44</v>
@@ -4035,10 +4573,16 @@
       <c r="L90" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="M90" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="91">
       <c r="A91" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>54</v>
@@ -4070,10 +4614,16 @@
       <c r="L91" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M91" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="92">
       <c r="A92" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>59</v>
@@ -4103,10 +4653,16 @@
       <c r="L92" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="M92" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="93">
       <c r="A93" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B93" s="1" t="n">
         <v>68</v>
@@ -4141,10 +4697,16 @@
       <c r="L93" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="M93" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="94">
       <c r="A94" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>67</v>
@@ -4174,10 +4736,16 @@
       <c r="L94" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="M94" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="95">
       <c r="A95" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>55</v>
@@ -4212,10 +4780,16 @@
       <c r="L95" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M95" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="96">
       <c r="A96" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>47</v>
@@ -4250,10 +4824,16 @@
       <c r="L96" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M96" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="97">
       <c r="A97" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>63</v>
@@ -4288,10 +4868,16 @@
       <c r="L97" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="M97" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="98">
       <c r="A98" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>60</v>
@@ -4326,10 +4912,16 @@
       <c r="L98" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M98" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="99">
       <c r="A99" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>31</v>
@@ -4361,10 +4953,16 @@
       <c r="L99" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M99" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="100">
       <c r="A100" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>35</v>
@@ -4396,10 +4994,16 @@
       <c r="L100" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M100" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="101">
       <c r="A101" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>64</v>
@@ -4431,10 +5035,16 @@
       <c r="L101" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M101" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="102">
       <c r="A102" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>63</v>
@@ -4467,10 +5077,16 @@
       <c r="L102" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="M102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="103">
       <c r="A103" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>72</v>
@@ -4505,10 +5121,16 @@
       <c r="L103" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M103" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="104">
       <c r="A104" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>63</v>
@@ -4540,10 +5162,16 @@
       <c r="L104" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="105">
       <c r="A105" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B105" s="1" t="n">
         <v>49</v>
@@ -4575,10 +5203,16 @@
       <c r="L105" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M105" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="106">
       <c r="A106" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>35</v>
@@ -4613,10 +5247,16 @@
       <c r="L106" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M106" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="107">
       <c r="A107" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>63</v>
@@ -4651,10 +5291,16 @@
       <c r="L107" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="M107" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="108">
       <c r="A108" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B108" s="1" t="n">
         <v>58</v>
@@ -4687,10 +5333,16 @@
       <c r="L108" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M108" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="109">
       <c r="A109" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B109" s="1" t="n">
         <v>38</v>
@@ -4725,10 +5377,16 @@
       <c r="L109" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M109" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="110">
       <c r="A110" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B110" s="1" t="n">
         <v>71</v>
@@ -4763,10 +5421,16 @@
       <c r="L110" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="111">
       <c r="A111" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B111" s="1" t="n">
         <v>55</v>
@@ -4796,10 +5460,16 @@
       <c r="L111" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M111" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N111" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="112">
       <c r="A112" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>45</v>
@@ -4834,10 +5504,16 @@
       <c r="L112" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M112" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N112" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="113">
       <c r="A113" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B113" s="1" t="n">
         <v>62</v>
@@ -4872,10 +5548,16 @@
       <c r="L113" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M113" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N113" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="114">
       <c r="A114" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B114" s="1" t="n">
         <v>65</v>
@@ -4910,10 +5592,16 @@
       <c r="L114" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="M114" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N114" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="115">
       <c r="A115" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B115" s="1" t="n">
         <v>58</v>
@@ -4945,10 +5633,16 @@
       <c r="L115" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M115" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N115" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="116">
       <c r="A116" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>60</v>
@@ -4983,10 +5677,16 @@
       <c r="L116" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="M116" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="117">
       <c r="A117" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B117" s="1" t="n">
         <v>73</v>
@@ -5012,10 +5712,16 @@
       <c r="L117" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M117" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="118">
       <c r="A118" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>56</v>
@@ -5050,10 +5756,16 @@
       <c r="L118" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="M118" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N118" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="119">
       <c r="A119" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1" t="n">
@@ -5081,10 +5793,16 @@
       <c r="L119" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M119" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="120">
       <c r="A120" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>60</v>
@@ -5119,10 +5837,16 @@
       <c r="L120" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="M120" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N120" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="121">
       <c r="A121" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B121" s="1" t="n">
         <v>37</v>
@@ -5157,10 +5881,16 @@
       <c r="L121" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M121" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N121" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="122">
       <c r="A122" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B122" s="1" t="n">
         <v>52</v>
@@ -5195,10 +5925,16 @@
       <c r="L122" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M122" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N122" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="123">
       <c r="A123" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B123" s="1" t="n">
         <v>43</v>
@@ -5233,10 +5969,16 @@
       <c r="L123" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M123" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N123" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="124">
       <c r="A124" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B124" s="1" t="n">
         <v>55</v>
@@ -5267,10 +6009,16 @@
       <c r="L124" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M124" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N124" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="125">
       <c r="A125" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>52</v>
@@ -5305,10 +6053,16 @@
       <c r="L125" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M125" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N125" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="126">
       <c r="A126" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B126" s="1" t="n">
         <v>71</v>
@@ -5343,10 +6097,16 @@
       <c r="L126" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="M126" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" s="1" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="127">
       <c r="A127" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B127" s="1" t="n">
         <v>71</v>
@@ -5381,10 +6141,16 @@
       <c r="L127" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="M127" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N127" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="128">
       <c r="A128" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B128" s="1" t="n">
         <v>61</v>
@@ -5416,10 +6182,16 @@
       <c r="L128" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M128" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N128" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="129">
       <c r="A129" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B129" s="1" t="n">
         <v>36</v>
@@ -5451,10 +6223,16 @@
       <c r="L129" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M129" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N129" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="130">
       <c r="A130" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B130" s="1" t="n">
         <v>42</v>
@@ -5489,10 +6267,16 @@
       <c r="L130" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M130" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N130" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="131">
       <c r="A131" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B131" s="1" t="n">
         <v>72</v>
@@ -5527,10 +6311,16 @@
       <c r="L131" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="M131" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="132">
       <c r="A132" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B132" s="1" t="n">
         <v>64</v>
@@ -5565,10 +6355,16 @@
       <c r="L132" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M132" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N132" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="133">
       <c r="A133" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B133" s="1" t="n">
         <v>53</v>
@@ -5603,10 +6399,16 @@
       <c r="L133" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M133" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N133" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="134">
       <c r="A134" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B134" s="1" t="n">
         <v>60</v>
@@ -5639,10 +6441,16 @@
       <c r="L134" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M134" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N134" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="135">
       <c r="A135" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B135" s="1" t="n">
         <v>66</v>
@@ -5674,10 +6482,16 @@
       <c r="L135" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M135" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N135" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="136">
       <c r="A136" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B136" s="1" t="n">
         <v>52</v>
@@ -5709,10 +6523,16 @@
       <c r="L136" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M136" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N136" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="137">
       <c r="A137" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B137" s="1" t="n">
         <v>62</v>
@@ -5747,10 +6567,16 @@
       <c r="L137" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M137" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N137" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="138">
       <c r="A138" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B138" s="1" t="n">
         <v>61</v>
@@ -5782,10 +6608,16 @@
       <c r="L138" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M138" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N138" s="1" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="139">
       <c r="A139" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B139" s="1" t="n">
         <v>59</v>
@@ -5820,10 +6652,16 @@
       <c r="L139" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M139" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N139" s="1" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="140">
       <c r="A140" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B140" s="1" t="n">
         <v>66</v>
@@ -5856,10 +6694,16 @@
       <c r="L140" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="M140" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" s="1" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="141">
       <c r="A141" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B141" s="1" t="n">
         <v>69</v>
@@ -5894,10 +6738,16 @@
       <c r="L141" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M141" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" s="1" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="142">
       <c r="A142" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -5917,10 +6767,16 @@
       <c r="L142" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="M142" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N142" s="1" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="143">
       <c r="A143" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B143" s="1" t="n">
         <v>65</v>
@@ -5950,10 +6806,16 @@
       <c r="L143" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="M143" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N143" s="1" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="144">
       <c r="A144" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B144" s="1" t="n">
         <v>63</v>
@@ -5988,10 +6850,16 @@
       <c r="L144" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="M144" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="145">
       <c r="A145" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B145" s="1" t="n">
         <v>58</v>
@@ -6026,10 +6894,16 @@
       <c r="L145" s="1" t="n">
         <v>32</v>
       </c>
+      <c r="M145" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" s="1" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="146">
       <c r="A146" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B146" s="1" t="n">
         <v>38</v>
@@ -6061,10 +6935,16 @@
       <c r="L146" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M146" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N146" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="147">
       <c r="A147" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B147" s="1" t="n">
         <v>62</v>
@@ -6096,10 +6976,16 @@
       <c r="L147" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M147" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N147" s="1" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="148">
       <c r="A148" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B148" s="1" t="n">
         <v>63</v>
@@ -6134,10 +7020,16 @@
       <c r="L148" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M148" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N148" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="149">
       <c r="A149" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B149" s="1" t="n">
         <v>61</v>
@@ -6167,10 +7059,16 @@
       <c r="L149" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M149" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N149" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="150">
       <c r="A150" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B150" s="1" t="n">
         <v>60</v>
@@ -6205,10 +7103,16 @@
       <c r="L150" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M150" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N150" s="1" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="151">
       <c r="A151" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B151" s="1" t="n">
         <v>73</v>
@@ -6234,10 +7138,16 @@
       <c r="L151" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="152">
+      <c r="M151" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="152">
       <c r="A152" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B152" s="1" t="n">
         <v>54</v>
@@ -6272,10 +7182,16 @@
       <c r="L152" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M152" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N152" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="153">
       <c r="A153" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B153" s="1" t="n">
         <v>61</v>
@@ -6310,10 +7226,16 @@
       <c r="L153" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="M153" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N153" s="1" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="154">
       <c r="A154" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B154" s="1" t="n">
         <v>48</v>
@@ -6348,10 +7270,16 @@
       <c r="L154" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M154" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N154" s="1" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="155">
       <c r="A155" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="1" t="n">
@@ -6382,10 +7310,16 @@
       <c r="L155" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="M155" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" s="1" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="156">
       <c r="A156" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B156" s="1" t="n">
         <v>61</v>
@@ -6420,10 +7354,16 @@
       <c r="L156" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M156" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N156" s="1" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="157">
       <c r="A157" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B157" s="1" t="n">
         <v>29</v>
@@ -6455,10 +7395,16 @@
       <c r="L157" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M157" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N157" s="1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="158">
       <c r="A158" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B158" s="1" t="n">
         <v>70</v>
@@ -6488,10 +7434,16 @@
       <c r="L158" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="M158" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N158" s="1" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="159">
       <c r="A159" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B159" s="1" t="n">
         <v>66</v>
@@ -6526,10 +7478,16 @@
       <c r="L159" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="M159" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="160">
       <c r="A160" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B160" s="1" t="n">
         <v>69</v>
@@ -6562,10 +7520,16 @@
       <c r="L160" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="M160" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" s="1" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="161">
       <c r="A161" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B161" s="1" t="n">
         <v>56</v>
@@ -6597,10 +7561,16 @@
       <c r="L161" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M161" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N161" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="162">
       <c r="A162" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B162" s="1" t="n">
         <v>37</v>
@@ -6630,10 +7600,16 @@
       <c r="L162" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M162" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N162" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="163">
       <c r="A163" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B163" s="1" t="n">
         <v>44</v>
@@ -6668,10 +7644,16 @@
       <c r="L163" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="M163" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N163" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="164">
       <c r="A164" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B164" s="1" t="n">
         <v>73</v>
@@ -6706,10 +7688,16 @@
       <c r="L164" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="M164" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" s="1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="165">
       <c r="A165" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B165" s="1" t="n">
         <v>62</v>
@@ -6744,10 +7732,16 @@
       <c r="L165" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M165" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N165" s="1" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="166">
       <c r="A166" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B166" s="1" t="n">
         <v>49</v>
@@ -6779,10 +7773,16 @@
       <c r="L166" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M166" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N166" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="167">
       <c r="A167" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B167" s="1" t="n">
         <v>59</v>
@@ -6812,10 +7812,16 @@
       <c r="L167" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M167" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N167" s="1" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="168">
       <c r="A168" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B168" s="1" t="n">
         <v>34</v>
@@ -6850,10 +7856,16 @@
       <c r="L168" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M168" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N168" s="1" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="169">
       <c r="A169" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B169" s="1" t="n">
         <v>73</v>
@@ -6888,10 +7900,16 @@
       <c r="L169" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="M169" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" s="1" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="170">
       <c r="A170" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B170" s="1" t="n">
         <v>73</v>
@@ -6926,10 +7944,16 @@
       <c r="L170" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M170" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" s="1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="171">
       <c r="A171" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B171" s="1" t="n">
         <v>62</v>
@@ -6961,10 +7985,16 @@
       <c r="L171" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M171" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N171" s="1" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="172">
       <c r="A172" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -6984,10 +8014,16 @@
       <c r="L172" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="M172" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N172" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="173">
       <c r="A173" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B173" s="1" t="n">
         <v>55</v>
@@ -7019,10 +8055,16 @@
       <c r="L173" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="M173" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N173" s="1" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="174">
       <c r="A174" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B174" s="1" t="n">
         <v>40</v>
@@ -7057,10 +8099,16 @@
       <c r="L174" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M174" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N174" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="175">
       <c r="A175" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B175" s="1" t="n">
         <v>60</v>
@@ -7095,10 +8143,16 @@
       <c r="L175" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="M175" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N175" s="1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="176">
       <c r="A176" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B176" s="1" t="n">
         <v>45</v>
@@ -7130,10 +8184,16 @@
       <c r="L176" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M176" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N176" s="1" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="177">
       <c r="A177" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B177" s="1" t="n">
         <v>62</v>
@@ -7168,10 +8228,16 @@
       <c r="L177" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M177" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N177" s="1" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="178">
       <c r="A178" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B178" s="1" t="n">
         <v>62</v>
@@ -7206,10 +8272,16 @@
       <c r="L178" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="M178" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N178" s="1" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="179">
       <c r="A179" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B179" s="1" t="n">
         <v>62</v>
@@ -7244,10 +8316,16 @@
       <c r="L179" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="M179" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N179" s="1" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="180">
       <c r="A180" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B180" s="1" t="n">
         <v>62</v>
@@ -7282,10 +8360,16 @@
       <c r="L180" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="M180" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N180" s="1" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="181">
       <c r="A181" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B181" s="1" t="n">
         <v>54</v>
@@ -7315,10 +8399,16 @@
       <c r="L181" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M181" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N181" s="1" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="182">
       <c r="A182" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B182" s="1" t="n">
         <v>53</v>
@@ -7348,10 +8438,16 @@
       <c r="L182" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M182" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N182" s="1" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="183">
       <c r="A183" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B183" s="1" t="n">
         <v>43</v>
@@ -7384,10 +8480,16 @@
       <c r="L183" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M183" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N183" s="1" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="184">
       <c r="A184" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B184" s="1" t="n">
         <v>59</v>
@@ -7419,10 +8521,16 @@
       <c r="L184" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="M184" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" s="1" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="185">
       <c r="A185" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B185" s="1" t="n">
         <v>64</v>
@@ -7457,10 +8565,16 @@
       <c r="L185" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M185" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N185" s="1" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="186">
       <c r="A186" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B186" s="1" t="n">
         <v>71</v>
@@ -7495,10 +8609,16 @@
       <c r="L186" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="M186" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" s="1" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="187">
       <c r="A187" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B187" s="1" t="n">
         <v>69</v>
@@ -7533,10 +8653,16 @@
       <c r="L187" s="1" t="n">
         <v>29</v>
       </c>
+      <c r="M187" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="N187" s="1" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="188">
       <c r="A188" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B188" s="1" t="n">
         <v>66</v>
@@ -7571,10 +8697,16 @@
       <c r="L188" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M188" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N188" s="1" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="189">
       <c r="A189" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B189" s="1" t="n">
         <v>59</v>
@@ -7609,10 +8741,16 @@
       <c r="L189" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="M189" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N189" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="190">
       <c r="A190" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B190" s="1" t="n">
         <v>59</v>
@@ -7647,10 +8785,16 @@
       <c r="L190" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M190" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N190" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="191">
       <c r="A191" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B191" s="1" t="n">
         <v>64</v>
@@ -7685,10 +8829,16 @@
       <c r="L191" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M191" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N191" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="192">
       <c r="A192" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B192" s="1" t="n">
         <v>61</v>
@@ -7723,10 +8873,16 @@
       <c r="L192" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M192" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N192" s="1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="193">
       <c r="A193" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B193" s="1" t="n">
         <v>49</v>
@@ -7758,10 +8914,16 @@
       <c r="L193" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M193" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N193" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="194">
       <c r="A194" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B194" s="1" t="n">
         <v>35</v>
@@ -7796,10 +8958,16 @@
       <c r="L194" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M194" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N194" s="1" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="195">
       <c r="A195" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B195" s="1" t="n">
         <v>34</v>
@@ -7831,6 +8999,12 @@
       </c>
       <c r="L195" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="M195" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N195" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -7852,11 +9026,11 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="M:M A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.56862745098039"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.60392156862745"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7877,11 +9051,11 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="M:M A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.56862745098039"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.60392156862745"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
